--- a/colored_word_pairs.xlsx
+++ b/colored_word_pairs.xlsx
@@ -26,6 +26,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <color rgb="00FF6384"/>
+    </font>
+    <font>
+      <color rgb="0036A2EB"/>
+    </font>
+    <font>
+      <color rgb="00FFCE56"/>
+    </font>
+    <font>
+      <color rgb="004BC0C0"/>
+    </font>
+    <font>
+      <color rgb="009966FF"/>
+    </font>
+    <font>
+      <color rgb="00FF9F40"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FF9F40"/>
+    </font>
+    <font>
       <b val="1"/>
       <color rgb="00FF6384"/>
     </font>
@@ -44,28 +66,6 @@
     <font>
       <b val="1"/>
       <color rgb="009966FF"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <color rgb="00FF9F40"/>
-    </font>
-    <font>
-      <color rgb="00FF6384"/>
-    </font>
-    <font>
-      <color rgb="0036A2EB"/>
-    </font>
-    <font>
-      <color rgb="00FFCE56"/>
-    </font>
-    <font>
-      <color rgb="004BC0C0"/>
-    </font>
-    <font>
-      <color rgb="009966FF"/>
-    </font>
-    <font>
-      <color rgb="00FF9F40"/>
     </font>
   </fonts>
   <fills count="2">
@@ -88,17 +88,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -464,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,36 +488,36 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bajta - Britto_2016</t>
+          <t>Bajta - Britto_2017</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>temporal distance - geographic distance - socio-cultural distance - estimated value - estimator &amp; provider - estimator</t>
+          <t>reliability - robustness level - maintainability level - reliability level - other project activities - type of project - not considered experience - in-house experience - experience level - tool experience level - oo experience level - domain experience level - software development experience - programming language experience level - effort hours - time efficiency level - maintenance - design - architecture - risk - risk level - considered structure - infrastructure - structure - value of number of sites - node count - considered experience - hardware - technical factors - platform support level - other requirement - requirements clarity level - requirements novelty level - processing requirements - security - security level - testing - testability level - not considered structure - maintainability - reusability level - installability level - portability level - size report - team size - availability - availability level - performance - quality level - process efficiency level - number of team members - team capability - work team level</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bajta - Britto_2017</t>
+          <t>Bajta - Britto_2016</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>maintenance - maintainability level - availability - availability level - testing - testability level - reliability - robustness level - reliability level - individual - personality - performance - process efficiency level - time efficiency level - quality level - research &amp; development - innovation level - risk - risk level - design - architecture - hardware - infrastructure - platform support level - technical factors - number of team members - team capability - work team level - team size - effort hours - maintainability - reusability level - security - security level</t>
+          <t>temporal distance - geographic distance - socio-cultural distance - geographical distance</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bajta - Dasthi</t>
+          <t>Bajta - Dashti</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>expert judgment - cocomo - fuzzy similarity - fuzzy</t>
+          <t>expert judgment - machine learning - artificial neural networks - fuzzy similar - fuzzy logic - actual cost value - constructive cost model - estimated cost value</t>
         </is>
       </c>
     </row>
@@ -528,7 +529,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>size report - late size metric - length - early size metric - individual - specific - performance - functionality - not considered - theoretically - none - implementation</t>
+          <t>other requirement - specific - implementation - functionality - individual - nonspecific - size report - length - performance</t>
         </is>
       </c>
     </row>
@@ -540,187 +541,235 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>maintenance - reliability - maintainability - availability - statistical analysis - analysis - testing - system investigation - individual - single - expert judgment - expert judgement - distant onshore - near offshore - close onshore - far offshore - performance - implementation - value - estimate value(s) - finance - financial - cocomo - co-located - healthcare - health - agile - scrum - customized scrum - execution - task - design - not considered - not applicable - considered - not used - preliminary planning - planning poker - number of team members - no. of team members - bidding - effort hours - hours/days - ideal hours - estimated value - security</t>
+          <t>reliability - maintainability - maintenance - availability - other project activities - all estimated activities - expert judgment - expert judgement - distant onshore - distributed: near offshore - distributed: close onshore - distributed: far offshore - distributed: distant onshore - preliminary planning - bidding planning level - release planning level - sprint planning level - daily planning level - planning poker - not considered experience - considered team's prior experience - not considered team's prior experience - effort hours - actual effort value - other effort predictors - ideal hours - not used effort predictors - telecommunication - communications industry - analysis - performance - near offshore - design - close onshore - considered structure - other type - agile - scrum - customized scrum - healthcare - health - considered experience - other requirement - other non functional requirements - not considered non functional requirements - other unit - far offshore - other planning approaches - execution - implementation - detail planning - system investigation - case-based reasoning - user case points - security - individual - single type - testing - actual cost value - group-based estimation - other estimation technique - number of team members - no. of team members - not considered team's skill level - considered team's skill level - considered distributed teams - not considered distributed teams - not applicable distributed teams - estimated cost value - estimate value(s) - finance - financial - statistics analysis</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Britto_2016 - Bajta</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>estimator &amp; provider - estimated value - estimator - temporal distance - geographic distance - socio-cultural distance</t>
+          <t>Britto_2017 - Bajta</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="inlineStr">
+        <is>
+          <t>risk level - risk - requirements clarity level - other requirement - in-house experience - not considered experience - considered experience - type of project - other project activities - robustness level - reliability - availability level - availability - technical factors - hardware - experience level - infrastructure - considered structure - testability level - testing - tool experience level - oo experience level - reusability level - maintainability - maintainability level - maintenance - node count - value of number of sites - requirements novelty level - time efficiency level - effort hours - performance - structure - not considered structure - team capability - number of team members - security level - security - domain experience level - reliability level - platform support level - architecture - design - software development experience - quality level - installability level - process efficiency level - team size - size report - programming language experience level - work team level - portability level - processing requirements</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Britto_2016 - Usman</t>
+          <t>Britto_2017 - Mendes</t>
         </is>
       </c>
       <c r="B8" s="6" t="inlineStr">
         <is>
-          <t>distributed - co-located - distribution - location - estimator &amp; provider - estimate value(s) - estimator - centralized - semi-distributed</t>
+          <t>cyclomatic complexity - complexity - web page allocation - web application - new complexity - page complexity - new media count - media - media duration - layout complexity - component complexity - metrics’ program - problem-oriented metric - media count - web objects - web software application - web hypermedia application - data usage complexity - total complexity - difficulty level - interface complexity - cohesion complexity - model collection complexity - model association complexity - control flow complexity - motivation level - motivation - spi program - program/sript - media allocation - lines of code - input complexity - output complexity - class complexity - data flow complexity - adaptation complexity</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Britto_2017 - Bajta</t>
+          <t>Britto_2017 - Usman</t>
         </is>
       </c>
       <c r="B9" s="6" t="inlineStr">
         <is>
-          <t>robustness level - reliability - team capability - number of team members - infrastructure - hardware - personality - individual - testability level - testing - process efficiency level - performance - availability level - availability - reliability level - maintainability - maintainability level - maintenance - architecture - design - security level - security - platform support level - work team level - innovation level - research &amp; development - time efficiency level - effort hours - risk level - risk - reusability level - quality level - technical factors - team size</t>
+          <t>object-oriented heuristic function points - function points - requirements clarity level - other non functional requirements - not considered non functional requirements - type of project - other project domain - co-located project setting - use case count - use case points method - user case points - use case estimation entity - robustness level - reliability - availability level - availability - experience level - considered team's prior experience - not considered team's prior experience - productivity level - other effort predictors - communication level - considered customer communication - not considered customer communication - type of product - other type - single type - requirements volatility level - testability level - testing - reusability level - maintainability - maintainability level - maintenance - requirements novelty level - time efficiency level - performance - actual effort value - international function point users group - team capability - no. of team members - not considered team's skill level - considered team's skill level - considered distributed teams - not considered distributed teams - not applicable distributed teams - security level - security - publishing unit count - other unit - reliability level - object-oriented function points - point type - entity count - number of entities estimated - architecture - design - quality level - installability level - implementation - process efficiency level - team size - work team level - portability level - processing requirements</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Britto_2017 - Mendes</t>
-        </is>
-      </c>
-      <c r="B10" s="6" t="inlineStr">
-        <is>
-          <t>new media count - media - input complexity - complexity - control flow complexity - total complexity - media duration - cyclomatic complexity - new complexity - output complexity - interface complexity - model association complexity - cohesion complexity - web page allocation - web application - component complexity - adaptation complexity - class complexity - lines of code - program/script - program count - web objects - web software application - web hypermedia application - type - specific - nonspecific - media count - layout complexity - data flow complexity - model collection complexity - data usage complexity - page complexity - difficulty level - metrics program - problem oriented metric - media allocation</t>
+          <t>Britto_2016 - Bajta</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>temporal distance - geographical distance - geographic distance - socio-cultural distance</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Britto_2017 - Usman</t>
-        </is>
-      </c>
-      <c r="B11" s="6" t="inlineStr">
-        <is>
-          <t>robustness level - reliability - object-oriented function points - function points - point - team capability - no. of team members - data web points - testability level - testing - process efficiency level - performance - availability level - availability - use case count - not used - reliability level - maintainability - maintainability level - maintenance - architecture - design - security level - security - work team level - type - not applicable - considered - time restriction - hours/days - international function point users group - time efficiency level - reusability level - quality level - team size</t>
+          <t>Britto_2016 - Dashti</t>
+        </is>
+      </c>
+      <c r="B11" s="8" t="inlineStr">
+        <is>
+          <t>legal entity</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Dasthi - Bajta</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>fuzzy - fuzzy similarity - expert judgment - cocomo</t>
+          <t>Britto_2016 - Mendes</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>late estimation stage - early - early estimation stage - distributed - direct - early &amp; late estimation stage</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Dasthi - Usman</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>expert judgment - expert judgement - analogy base - analogy - cocomo - co-located</t>
+          <t>Britto_2016 - Usman</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>late estimation stage - other estimation technique - other estimation entity - estimate value(s) - early estimation stage - estimator &amp; provider - use case estimation entity - task estimation entity - estimator - semi-distributed - distribution type - distributed: near offshore - distributed: far offshore - distributed - considered distributed teams - not considered distributed teams - not applicable distributed teams - distributed: close onshore - distributed: distant onshore - early &amp; late estimation stage</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Mendes - Bajta</t>
-        </is>
-      </c>
-      <c r="B14" s="6" t="inlineStr">
-        <is>
-          <t>theoretically - not considered - functionality - performance - implementation - late size metric - size report - length - early size metric - specific - individual - none</t>
+          <t>Dashti - Bajta</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>fuzzy logic - fuzzy similar - expert judgment - constructive cost model - actual cost value - estimated cost value - artificial neural networks - machine learning</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Mendes - Britto_2017</t>
-        </is>
-      </c>
-      <c r="B15" s="6" t="inlineStr">
-        <is>
-          <t>media - new media count - media duration - media count - media allocation - program/script - lines of code - program count - web application - web page allocation - web objects - problem oriented metric - metrics program - specific - type - complexity - input complexity - control flow complexity - total complexity - cyclomatic complexity - new complexity - output complexity - interface complexity - model association complexity - cohesion complexity - component complexity - adaptation complexity - class complexity - layout complexity - data flow complexity - model collection complexity - data usage complexity - page complexity - difficulty level - nonspecific - web software application - web hypermedia application</t>
+          <t>Dashti - Britto_2016</t>
+        </is>
+      </c>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>legal entity</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Mendes - Usman</t>
-        </is>
-      </c>
-      <c r="B16" s="8" t="inlineStr">
-        <is>
-          <t>theoretically - not considered - considered - functionality - performance - implementation - specific - other - not applicable - all - both - none - not used - nonspecific</t>
+          <t>Dashti - Usman</t>
+        </is>
+      </c>
+      <c r="B16" s="9" t="inlineStr">
+        <is>
+          <t>analogy-based - analogy - expert judgment - expert judgement</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Usman - Bajta</t>
-        </is>
-      </c>
-      <c r="B17" s="5" t="inlineStr">
-        <is>
-          <t>maintenance - reliability - maintainability - availability - testing - distant onshore - near offshore - performance - analysis - implementation - co-located - cocomo - expert judgement - expert judgment - value - estimated value - task - execution - financial - finance - scrum - agile - customized scrum - no. of team members - number of team members - hours/days - effort hours - single - individual - planning poker - preliminary planning - close onshore - far offshore - not applicable - not considered - estimate value(s) - design - considered - not used - statistical analysis - system investigation - bidding - ideal hours - security - health - healthcare</t>
+          <t>Mendes - Bajta</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
+        <is>
+          <t>specific - other requirement - individual - length - size report - functionality - implementation - performance - nonspecific</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Usman - Britto_2016</t>
-        </is>
-      </c>
-      <c r="B18" s="4" t="inlineStr">
-        <is>
-          <t>co-located - distributed - location - centralized - distribution - semi-distributed - estimate value(s) - estimator &amp; provider - estimator</t>
+          <t>Mendes - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B18" s="6" t="inlineStr">
+        <is>
+          <t>web application - web page allocation - web objects - motivation - motivation level - web software application - web hypermedia application - media - new media count - media duration - media count - media allocation - program/sript - spi program - lines of code - problem-oriented metric - metrics’ program - complexity - cyclomatic complexity - new complexity - page complexity - layout complexity - component complexity - data usage complexity - total complexity - difficulty level - interface complexity - cohesion complexity - model collection complexity - model association complexity - control flow complexity - input complexity - output complexity - class complexity - data flow complexity - adaptation complexity</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Usman - Britto_2017</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>maintenance - maintainability level - availability - availability level - testing - testability level - reliability - robustness level - reliability level - performance - process efficiency level - time efficiency level - quality level - function points - object-oriented function points - international function point users group - no. of team members - team capability - work team level - team size - hours/days - time restriction - point - data web points - not applicable - type - design - architecture - considered - not used - use case count - maintainability - reusability level - security - security level</t>
+          <t>Mendes - Britto_2016</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>direct - distributed - early - late estimation stage - early estimation stage - early &amp; late estimation stage</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Usman - Dasthi</t>
-        </is>
-      </c>
-      <c r="B20" s="9" t="inlineStr">
-        <is>
-          <t>co-located - cocomo - expert judgement - expert judgment - analogy - analogy base</t>
+          <t>Mendes - Usman</t>
+        </is>
+      </c>
+      <c r="B20" s="6" t="inlineStr">
+        <is>
+          <t>specific - other type - single type - solution-oriented metric - considered without any metric - problem-oriented metric - functionality - performance - other non functional requirements - not considered non functional requirements - implementation - nonspecific</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B21" s="5" t="inlineStr">
+        <is>
+          <t>financial - finance - other type - considered structure - other requirement - other estimation technique - group-based estimation - considered team's prior experience - not considered experience - considered experience - number of team members - security - communications industry - telecommunication - bidding planning level - preliminary planning - performance - analysis - implementation - release planning level - no. of team members - actual effort value - effort hours - actual cost value - estimated cost value - other non functional requirements - not considered team's skill level - single type - individual - sprint planning level - other planning approaches - detail planning - considered team's skill level - considered distributed teams - other effort predictors - scrum - agile - expert judgement - expert judgment - not considered distributed teams - daily planning level - system investigation - statistics analysis - design - not applicable distributed teams - not considered non functional requirements - customized scrum - distributed: near offshore - distant onshore - near offshore - close onshore - far offshore - execution - user case points - case-based reasoning - maintainability - reliability - maintenance - availability - ideal hours - distributed: close onshore - planning poker - other unit - not considered team's prior experience - estimate value(s) - distributed: far offshore - distributed: distant onshore - testing - all estimated activities - other project activities - not used effort predictors - health - healthcare</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B22" s="10" t="inlineStr">
+        <is>
+          <t>other type - type of product - considered team's prior experience - experience level - team capability - work team level - security - security level - function points - object-oriented heuristic function points - international function point users group - object-oriented function points - performance - time efficiency level - quality level - process efficiency level - no. of team members - team size - actual effort value - other non functional requirements - requirements clarity level - requirements volatility level - requirements novelty level - processing requirements - not considered team's skill level - single type - considered team's skill level - considered distributed teams - considered customer communication - communication level - number of entities estimated - entity count - other effort predictors - productivity level - point type - not considered distributed teams - design - architecture - not applicable distributed teams - not considered non functional requirements - use case points method - use case count - implementation - installability level - user case points - maintainability - reusability level - maintainability level - reliability level - portability level - not considered customer communication - reliability - robustness level - maintenance - use case estimation entity - other unit - publishing unit count - not considered team's prior experience - other project domain - type of project - testing - testability level - availability - availability level - co-located project setting</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2016</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>other estimation technique - late estimation stage - early estimation stage - estimator &amp; provider - estimator - early &amp; late estimation stage - distribution type - semi-distributed - distributed - other estimation entity - considered distributed teams - not considered distributed teams - not applicable distributed teams - distributed: near offshore - distributed: close onshore - use case estimation entity - estimate value(s) - distributed: far offshore - task estimation entity - distributed: distant onshore</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Usman - Dashti</t>
+        </is>
+      </c>
+      <c r="B24" s="6" t="inlineStr">
+        <is>
+          <t>analogy - analogy-based - expert judgement - expert judgment</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
           <t>Usman - Mendes</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>performance - functionality - all - other - none - specific - both - nonspecific - not applicable - not considered - theoretically - considered - not used - implementation</t>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>other type - specific - nonspecific - performance - functionality - other non functional requirements - single type - not considered non functional requirements - implementation - considered without any metric - solution-oriented metric - problem-oriented metric</t>
         </is>
       </c>
     </row>

--- a/colored_word_pairs.xlsx
+++ b/colored_word_pairs.xlsx
@@ -26,46 +26,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <color rgb="00FF6384"/>
-    </font>
-    <font>
-      <color rgb="0036A2EB"/>
-    </font>
-    <font>
-      <color rgb="00FFCE56"/>
-    </font>
-    <font>
-      <color rgb="004BC0C0"/>
-    </font>
-    <font>
-      <color rgb="009966FF"/>
-    </font>
-    <font>
-      <color rgb="00FF9F40"/>
-    </font>
-    <font>
       <b val="1"/>
       <color rgb="00FF6384"/>
     </font>
     <font>
       <b val="1"/>
+      <color rgb="0036A2EB"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFCE56"/>
+    </font>
+    <font>
+      <color rgb="004BC0C0"/>
+    </font>
+    <font>
+      <color rgb="009966FF"/>
+    </font>
+    <font>
+      <color rgb="00FF9F40"/>
+    </font>
+    <font>
+      <color rgb="00FF6384"/>
+    </font>
+    <font>
+      <color rgb="0036A2EB"/>
+    </font>
+    <font>
+      <color rgb="00FFCE56"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="004BC0C0"/>
+    </font>
+    <font>
+      <b val="1"/>
       <color rgb="009966FF"/>
     </font>
     <font>
       <b val="1"/>
       <color rgb="00FF9F40"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <color rgb="0036A2EB"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <color rgb="00FFCE56"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <color rgb="004BC0C0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -88,14 +88,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -461,7 +463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,360 +486,216 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bajta - Britto_2017</t>
+          <t>Bajta - Britto_2016</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>number of team members - in-house experience - reusability level - object-oriented function points - reused media allocation - domain experience level - requirements clarity level - concern module count - cluster count - new media count - model slot size - data flow complexity - requirements volatility level - inner/sub concern count - interface complexity - flexibility level - motivation level - development restriction - entity count - compactness - concurrency level - team size - attribute count - spi program - focus factor - model link complexity - stability level - software reuse - semantic association count - low feature count - media duration - model node size - it literacy - publishing model unit count - usability level - testability level - client.personality - structure - database size - architecture - processing requirements - metrics’ program - cluster slot count - reused component count - project management level - international function point users group - component granularity level - web page allocation - lines of code - novelty level - scalability level - data usage complexity - documentation level - anchor count - media count - operational mode - class coupling - feature count - product.type - high feature count - reused comment count - risk level - object-oriented heuristic function points - cohesion complexity - use case count - design volatility - resource level - slot count - authoring tool type - model association complexity - accessibility level - mapped workflows - server script count - reused media count - reused lines of code - storage constraint - cluster node size - cohesion - tool experience level - module count - work team level - component complexity - process efficiency level - oo experience level - program count - collection slot size - deployment platform experience level - diffusion cut count - quality level - media allocation - productivity level - module point cut count - reused program count - connectivity density - new web page count - indifferent concern count - readability level - client script count - security level - component slot count - segment count - programming language experience level - availability level - communication level - memory efficiency level - link count - control flow complexity - web objects - concern coupling - experience level - platform volatility level - reliability level - requirements novelty level - innovation level - portability level - number of programming languages - operation count - project.type - team capability - input complexity - installability level - slot granularity level - maintainability level - adaptation complexity - page complexity - collection center slot count - time restriction - node count - reused low feature count - software development experience - modularity level - time efficiency level - association slot size - statement count - node slot size - publishing unit count - association center slot count - component count - common software measurement international consortium - information slot count - data web points - trainability level - new complexity - reused high feature count - cyclomatic complexity - robustness level - integration with legacy systems - total complexity - rapid app development - web page count - infrastructure - comment count - class complexity - difficulty level - lessons learned repository - module attribute count - platform support level - number of projects in parallel - layout complexity - technical factors - output complexity - concern operation count - stratum - model collection complexity - section count - project activities.other - reliability - maintenance - machine learning - staff/cost - detail planning - estimated value - project domain.other - implementation - telecommunication - producte requirement.other - systems engineering - socio-cultural distance - geographical distance - finance - expert judgment - individual - feasibility study - statistics analysis - preliminary planning - near offshore - healthcare - fuzzy similar - capability maturity model integration - team structure.not considered - constructive cost model - portfolio - genetic algorithms - system investigation - non-machine learning - far offshore - size report - actual cost.value - analysis - case-based reasoning - conceptualization - planning approaches.other - number of sites.value - security - maintainability - execution - testing - team experience.not considered - temporal distance - group-based estimation - commissioning - effort hours - agile - risk - close onshore - team structure.considered - baseline comparison - design - hardware - team experience.considered - sensitivity analysis - delphi - availability - distant onshore - variation reduction - performance</t>
+          <t>estimated value - estimator - temporal distance</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bajta - Britto_2016</t>
+          <t>Bajta - Britto_2017</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>number of team members - centralized - legal entity - estimation stage.early &amp; late - location - estimator &amp; provider - provider - geographic distance - estimator - temporal distance - estimation stage.late - semi-distributed - estimation stage.early - distributed - project activities.other - reliability - maintenance - machine learning - staff/cost - detail planning - estimated value - project domain.other - implementation - telecommunication - producte requirement.other - systems engineering - socio-cultural distance - geographical distance - finance - expert judgment - individual - feasibility study - statistics analysis - preliminary planning - near offshore - healthcare - fuzzy similar - capability maturity model integration - team structure.not considered - constructive cost model - portfolio - genetic algorithms - system investigation - non-machine learning - far offshore - size report - actual cost.value - analysis - case-based reasoning - conceptualization - planning approaches.other - number of sites.value - security - maintainability - execution - testing - team experience.not considered - group-based estimation - commissioning - effort hours - agile - risk - close onshore - team structure.considered - baseline comparison - design - hardware - team experience.considered - sensitivity analysis - delphi - availability - distant onshore - variation reduction - performance</t>
+          <t>reliability - reliability level - risk - risk level - number of team members - team size - maintainability - maintainability level - security - security level - availability - availability level</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bajta - Dashti</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>number of team members - legal entity - artificial neural networks - software evaluation and estimation for risk - software life cycle management - evolutionary - analogy-based - constructive cost model - swarm - basic-combination - fuzzy logic - ai-combined hybrid - expert judgment - project activities.other - reliability - maintenance - machine learning - staff/cost - detail planning - estimated value - project domain.other - implementation - telecommunication - producte requirement.other - systems engineering - socio-cultural distance - geographical distance - finance - individual - feasibility study - statistics analysis - preliminary planning - near offshore - healthcare - fuzzy similar - capability maturity model integration - team structure.not considered - portfolio - genetic algorithms - system investigation - non-machine learning - far offshore - size report - actual cost.value - analysis - case-based reasoning - conceptualization - planning approaches.other - number of sites.value - security - maintainability - execution - testing - team experience.not considered - temporal distance - group-based estimation - commissioning - effort hours - agile - risk - close onshore - team structure.considered - baseline comparison - design - hardware - team experience.considered - sensitivity analysis - delphi - availability - distant onshore - variation reduction - performance</t>
+          <t>Bajta - Dasthi</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>expert judgment - cocomo</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bajta - Mendes</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>number of team members - interval - late size metric - web application - program/sript - web software application - absolute - length - ratio - media - indirect - specific - functionality - early size metric - validation.none - direct - solution-oriented metric - validated theoretically - complexity - ordinal - web hypermedia application - nominal - validation.both - validated empirically - problem-oriented metric - nonspecific - motivation - project activities.other - reliability - maintenance - machine learning - staff/cost - detail planning - estimated value - project domain.other - implementation - telecommunication - producte requirement.other - systems engineering - socio-cultural distance - geographical distance - finance - expert judgment - individual - feasibility study - statistics analysis - preliminary planning - near offshore - healthcare - fuzzy similar - capability maturity model integration - team structure.not considered - constructive cost model - portfolio - genetic algorithms - system investigation - non-machine learning - far offshore - size report - actual cost.value - analysis - case-based reasoning - conceptualization - planning approaches.other - number of sites.value - security - maintainability - execution - testing - team experience.not considered - temporal distance - group-based estimation - commissioning - effort hours - agile - risk - close onshore - team structure.considered - baseline comparison - design - hardware - team experience.considered - sensitivity analysis - delphi - availability - distant onshore - variation reduction - performance</t>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>reliability - maintainability - analysis - near offshore - far offshore - close onshore - distant onshore - number of team members - no. of team members - performance - finance - financial - value - expert judgment - expert judgement - maintenance - security - healthcare - health - not considered - not applicable - considered - estimated value - estimate value(s) - availability - testing - design - bidding - statistical analysis - implementation</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bajta - Usman</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>number of team members - dynamic systems development method - three point type - function points - education - extreme programming - number of entities estimated - transportation - unit.other - expert judgement - team's prior experience.not considered - customized scrum - task - crystal - bias of relative error - distributed teams.not considered - distributed: far offshore - median magnitude of relative error - communications industry - performance - maintenance - accuracy measure.not used - estimated activities.all - planning level.bidding - accuracy measure.other - estimate value(s) - kanban - use case - team size.value - analysis - team's skill level.considered - customized extreme programming - considered without any metric - security - estimation technique.other - non functional requirements.not considered - pair/days - government/military - non functional requirements.other - user story - project somain.other - user case points - distribution type - estimation entity.other - availability - reliability - distributed teams.not applicable - implementation - manufacturing - scrum - use case points method - financial - team's skill level.not considered - type.single - ideal hours - maintainability - testing - type.group - distributed: close onshore - point type - customer communication.not considered - planning level.sprint - distributed: distant onshore - not used effort predictors - distributed teams.considered - planning level.release - team's prior experience.considered - mean magnitude of relative error - analogy - house/days - actual effort.value - accuracy level.value - project setting.co-located - feature-driven development - health - planning level.daily - planning poker - other effort predictors - distributed: near offshore - customer communication.considered - design - retail/wholesale - other type - story points - project activities.other - machine learning - staff/cost - detail planning - estimated value - project domain.other - telecommunication - producte requirement.other - systems engineering - socio-cultural distance - geographical distance - finance - expert judgment - individual - feasibility study - statistics analysis - preliminary planning - near offshore - healthcare - fuzzy similar - capability maturity model integration - team structure.not considered - constructive cost model - portfolio - genetic algorithms - system investigation - non-machine learning - far offshore - size report - actual cost.value - case-based reasoning - conceptualization - planning approaches.other - number of sites.value - execution - team experience.not considered - temporal distance - group-based estimation - commissioning - effort hours - agile - risk - close onshore - team structure.considered - baseline comparison - hardware - team experience.considered - sensitivity analysis - delphi - distant onshore - variation reduction</t>
+          <t>Britto_2016 - Bajta</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>estimator - estimated value - temporal distance</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Britto_2017 - Bajta</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>in-house experience - number of team members - project activities.other - reliability - maintenance - machine learning - staff/cost - detail planning - estimated value - project domain.other - implementation - telecommunication - producte requirement.other - systems engineering - socio-cultural distance - geographical distance - finance - expert judgment - individual - feasibility study - statistics analysis - preliminary planning - near offshore - healthcare - fuzzy similar - capability maturity model integration - team structure.not considered - constructive cost model - portfolio - genetic algorithms - system investigation - non-machine learning - far offshore - size report - actual cost.value - analysis - case-based reasoning - conceptualization - planning approaches.other - number of sites.value - security - maintainability - execution - testing - team experience.not considered - temporal distance - group-based estimation - commissioning - effort hours - agile - risk - close onshore - team structure.considered - baseline comparison - design - hardware - team experience.considered - sensitivity analysis - delphi - availability - distant onshore - variation reduction - performance - reusability level - object-oriented function points - reused media allocation - domain experience level - requirements clarity level - concern module count - cluster count - new media count - model slot size - data flow complexity - requirements volatility level - inner/sub concern count - interface complexity - flexibility level - motivation level - development restriction - entity count - compactness - concurrency level - team size - attribute count - spi program - focus factor - model link complexity - stability level - software reuse - semantic association count - low feature count - media duration - model node size - it literacy - publishing model unit count - usability level - testability level - client.personality - structure - database size - architecture - processing requirements - metrics’ program - cluster slot count - reused component count - project management level - international function point users group - component granularity level - web page allocation - lines of code - novelty level - scalability level - data usage complexity - documentation level - anchor count - media count - operational mode - class coupling - feature count - product.type - high feature count - reused comment count - risk level - object-oriented heuristic function points - cohesion complexity - use case count - design volatility - resource level - slot count - authoring tool type - model association complexity - accessibility level - mapped workflows - server script count - reused media count - reused lines of code - storage constraint - cluster node size - cohesion - tool experience level - module count - work team level - component complexity - process efficiency level - oo experience level - program count - collection slot size - deployment platform experience level - diffusion cut count - quality level - media allocation - productivity level - module point cut count - reused program count - connectivity density - new web page count - indifferent concern count - readability level - client script count - security level - component slot count - segment count - programming language experience level - availability level - communication level - memory efficiency level - link count - control flow complexity - web objects - concern coupling - experience level - platform volatility level - reliability level - requirements novelty level - innovation level - portability level - number of programming languages - operation count - project.type - team capability - input complexity - installability level - slot granularity level - maintainability level - adaptation complexity - page complexity - collection center slot count - time restriction - node count - reused low feature count - software development experience - modularity level - time efficiency level - association slot size - statement count - node slot size - publishing unit count - association center slot count - component count - common software measurement international consortium - information slot count - data web points - trainability level - new complexity - reused high feature count - cyclomatic complexity - robustness level - integration with legacy systems - total complexity - rapid app development - web page count - infrastructure - comment count - class complexity - difficulty level - lessons learned repository - module attribute count - platform support level - number of projects in parallel - layout complexity - technical factors - output complexity - concern operation count - stratum - model collection complexity - section count</t>
+          <t>Britto_2016 - Usman</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>distributed - distribution - estimator - estimate value(s)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Britto_2017 - Britto_2016</t>
-        </is>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>in-house experience - centralized - legal entity - estimation stage.early &amp; late - location - estimator &amp; provider - provider - geographic distance - estimator - temporal distance - estimation stage.late - semi-distributed - estimation stage.early - distributed - reusability level - object-oriented function points - reused media allocation - domain experience level - requirements clarity level - concern module count - cluster count - new media count - model slot size - data flow complexity - requirements volatility level - inner/sub concern count - interface complexity - flexibility level - motivation level - development restriction - entity count - compactness - concurrency level - team size - attribute count - spi program - focus factor - model link complexity - stability level - software reuse - semantic association count - low feature count - media duration - model node size - it literacy - publishing model unit count - usability level - testability level - client.personality - structure - database size - architecture - processing requirements - metrics’ program - cluster slot count - reused component count - project management level - international function point users group - component granularity level - web page allocation - lines of code - novelty level - scalability level - data usage complexity - documentation level - anchor count - media count - operational mode - class coupling - feature count - product.type - high feature count - reused comment count - risk level - object-oriented heuristic function points - cohesion complexity - use case count - design volatility - resource level - slot count - authoring tool type - model association complexity - accessibility level - mapped workflows - server script count - reused media count - reused lines of code - storage constraint - cluster node size - cohesion - tool experience level - module count - work team level - component complexity - process efficiency level - oo experience level - program count - collection slot size - deployment platform experience level - diffusion cut count - quality level - media allocation - productivity level - module point cut count - reused program count - connectivity density - new web page count - indifferent concern count - readability level - client script count - security level - component slot count - segment count - programming language experience level - availability level - communication level - memory efficiency level - link count - control flow complexity - web objects - concern coupling - experience level - platform volatility level - reliability level - requirements novelty level - innovation level - portability level - number of programming languages - operation count - project.type - team capability - input complexity - installability level - slot granularity level - maintainability level - adaptation complexity - page complexity - collection center slot count - time restriction - node count - reused low feature count - software development experience - modularity level - time efficiency level - association slot size - statement count - node slot size - publishing unit count - association center slot count - component count - common software measurement international consortium - information slot count - data web points - trainability level - new complexity - reused high feature count - cyclomatic complexity - robustness level - integration with legacy systems - total complexity - rapid app development - web page count - infrastructure - comment count - class complexity - difficulty level - lessons learned repository - module attribute count - platform support level - number of projects in parallel - layout complexity - technical factors - output complexity - concern operation count - stratum - model collection complexity - section count</t>
+          <t>Britto_2017 - Bajta</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="inlineStr">
+        <is>
+          <t>team size - number of team members - security level - security - risk level - risk - maintainability level - maintainability - reliability level - reliability - availability level - availability</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Britto_2017 - Dashti</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>in-house experience - legal entity - artificial neural networks - software evaluation and estimation for risk - software life cycle management - evolutionary - analogy-based - constructive cost model - swarm - basic-combination - fuzzy logic - ai-combined hybrid - expert judgment - reusability level - object-oriented function points - reused media allocation - domain experience level - requirements clarity level - concern module count - cluster count - new media count - model slot size - data flow complexity - requirements volatility level - inner/sub concern count - interface complexity - flexibility level - motivation level - development restriction - entity count - compactness - concurrency level - team size - attribute count - spi program - focus factor - model link complexity - stability level - software reuse - semantic association count - low feature count - media duration - model node size - it literacy - publishing model unit count - usability level - testability level - client.personality - structure - database size - architecture - processing requirements - metrics’ program - cluster slot count - reused component count - project management level - international function point users group - component granularity level - web page allocation - lines of code - novelty level - scalability level - data usage complexity - documentation level - anchor count - media count - operational mode - class coupling - feature count - product.type - high feature count - reused comment count - risk level - object-oriented heuristic function points - cohesion complexity - use case count - design volatility - resource level - slot count - authoring tool type - model association complexity - accessibility level - mapped workflows - server script count - reused media count - reused lines of code - storage constraint - cluster node size - cohesion - tool experience level - module count - work team level - component complexity - process efficiency level - oo experience level - program count - collection slot size - deployment platform experience level - diffusion cut count - quality level - media allocation - productivity level - module point cut count - reused program count - connectivity density - new web page count - indifferent concern count - readability level - client script count - security level - component slot count - segment count - programming language experience level - availability level - communication level - memory efficiency level - link count - control flow complexity - web objects - concern coupling - experience level - platform volatility level - reliability level - requirements novelty level - innovation level - portability level - number of programming languages - operation count - project.type - team capability - input complexity - installability level - slot granularity level - maintainability level - adaptation complexity - page complexity - collection center slot count - time restriction - node count - reused low feature count - software development experience - modularity level - time efficiency level - association slot size - statement count - node slot size - publishing unit count - association center slot count - component count - common software measurement international consortium - information slot count - data web points - trainability level - new complexity - reused high feature count - cyclomatic complexity - robustness level - integration with legacy systems - total complexity - rapid app development - web page count - infrastructure - comment count - class complexity - difficulty level - lessons learned repository - module attribute count - platform support level - number of projects in parallel - layout complexity - technical factors - output complexity - concern operation count - stratum - model collection complexity - section count</t>
+          <t>Britto_2017 - Mendes</t>
+        </is>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>total complexity - complexity - class complexity - component complexity - output complexity - media allocation - media - input complexity - cyclomatic complexity - media count - new complexity</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Britto_2017 - Mendes</t>
-        </is>
-      </c>
-      <c r="B10" s="4" t="inlineStr">
-        <is>
-          <t>in-house experience - interval - late size metric - web application - program/sript - web software application - absolute - length - ratio - media - indirect - specific - functionality - early size metric - validation.none - direct - solution-oriented metric - validated theoretically - complexity - ordinal - web hypermedia application - nominal - validation.both - validated empirically - problem-oriented metric - nonspecific - motivation - reusability level - object-oriented function points - reused media allocation - domain experience level - requirements clarity level - concern module count - cluster count - new media count - model slot size - data flow complexity - requirements volatility level - inner/sub concern count - interface complexity - flexibility level - motivation level - development restriction - entity count - compactness - concurrency level - team size - attribute count - spi program - focus factor - model link complexity - stability level - software reuse - semantic association count - low feature count - media duration - model node size - it literacy - publishing model unit count - usability level - testability level - client.personality - structure - database size - architecture - processing requirements - metrics’ program - cluster slot count - reused component count - project management level - international function point users group - component granularity level - web page allocation - lines of code - novelty level - scalability level - data usage complexity - documentation level - anchor count - media count - operational mode - class coupling - feature count - product.type - high feature count - reused comment count - risk level - object-oriented heuristic function points - cohesion complexity - use case count - design volatility - resource level - slot count - authoring tool type - model association complexity - accessibility level - mapped workflows - server script count - reused media count - reused lines of code - storage constraint - cluster node size - cohesion - tool experience level - module count - work team level - component complexity - process efficiency level - oo experience level - program count - collection slot size - deployment platform experience level - diffusion cut count - quality level - media allocation - productivity level - module point cut count - reused program count - connectivity density - new web page count - indifferent concern count - readability level - client script count - security level - component slot count - segment count - programming language experience level - availability level - communication level - memory efficiency level - link count - control flow complexity - web objects - concern coupling - experience level - platform volatility level - reliability level - requirements novelty level - innovation level - portability level - number of programming languages - operation count - project.type - team capability - input complexity - installability level - slot granularity level - maintainability level - adaptation complexity - page complexity - collection center slot count - time restriction - node count - reused low feature count - software development experience - modularity level - time efficiency level - association slot size - statement count - node slot size - publishing unit count - association center slot count - component count - common software measurement international consortium - information slot count - data web points - trainability level - new complexity - reused high feature count - cyclomatic complexity - robustness level - integration with legacy systems - total complexity - rapid app development - web page count - infrastructure - comment count - class complexity - difficulty level - lessons learned repository - module attribute count - platform support level - number of projects in parallel - layout complexity - technical factors - output complexity - concern operation count - stratum - model collection complexity - section count</t>
+          <t>Britto_2017 - Usman</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="inlineStr">
+        <is>
+          <t>team size - no. of team members - security level - security - maintainability level - maintainability - reliability level - reliability - availability level - availability</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Britto_2017 - Usman</t>
+          <t>Dasthi - Bajta</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>in-house experience - dynamic systems development method - three point type - function points - education - extreme programming - number of entities estimated - transportation - unit.other - expert judgement - team's prior experience.not considered - customized scrum - task - crystal - bias of relative error - distributed teams.not considered - distributed: far offshore - median magnitude of relative error - communications industry - performance - maintenance - accuracy measure.not used - estimated activities.all - planning level.bidding - accuracy measure.other - estimate value(s) - kanban - use case - team size.value - analysis - team's skill level.considered - customized extreme programming - considered without any metric - security - estimation technique.other - non functional requirements.not considered - pair/days - government/military - non functional requirements.other - user story - project somain.other - user case points - distribution type - estimation entity.other - availability - reliability - distributed teams.not applicable - implementation - manufacturing - scrum - use case points method - financial - team's skill level.not considered - type.single - ideal hours - maintainability - testing - type.group - distributed: close onshore - point type - customer communication.not considered - planning level.sprint - distributed: distant onshore - not used effort predictors - distributed teams.considered - planning level.release - team's prior experience.considered - mean magnitude of relative error - analogy - house/days - actual effort.value - accuracy level.value - project setting.co-located - feature-driven development - health - planning level.daily - planning poker - other effort predictors - distributed: near offshore - customer communication.considered - design - retail/wholesale - other type - story points - reusability level - object-oriented function points - reused media allocation - domain experience level - requirements clarity level - concern module count - cluster count - new media count - model slot size - data flow complexity - requirements volatility level - inner/sub concern count - interface complexity - flexibility level - motivation level - development restriction - entity count - compactness - concurrency level - team size - attribute count - spi program - focus factor - model link complexity - stability level - software reuse - semantic association count - low feature count - media duration - model node size - it literacy - publishing model unit count - usability level - testability level - client.personality - structure - database size - architecture - processing requirements - metrics’ program - cluster slot count - reused component count - project management level - international function point users group - component granularity level - web page allocation - lines of code - novelty level - scalability level - data usage complexity - documentation level - anchor count - media count - operational mode - class coupling - feature count - product.type - high feature count - reused comment count - risk level - object-oriented heuristic function points - cohesion complexity - use case count - design volatility - resource level - slot count - authoring tool type - model association complexity - accessibility level - mapped workflows - server script count - reused media count - reused lines of code - storage constraint - cluster node size - cohesion - tool experience level - module count - work team level - component complexity - process efficiency level - oo experience level - program count - collection slot size - deployment platform experience level - diffusion cut count - quality level - media allocation - productivity level - module point cut count - reused program count - connectivity density - new web page count - indifferent concern count - readability level - client script count - security level - component slot count - segment count - programming language experience level - availability level - communication level - memory efficiency level - link count - control flow complexity - web objects - concern coupling - experience level - platform volatility level - reliability level - requirements novelty level - innovation level - portability level - number of programming languages - operation count - project.type - team capability - input complexity - installability level - slot granularity level - maintainability level - adaptation complexity - page complexity - collection center slot count - time restriction - node count - reused low feature count - software development experience - modularity level - time efficiency level - association slot size - statement count - node slot size - publishing unit count - association center slot count - component count - common software measurement international consortium - information slot count - data web points - trainability level - new complexity - reused high feature count - cyclomatic complexity - robustness level - integration with legacy systems - total complexity - rapid app development - web page count - infrastructure - comment count - class complexity - difficulty level - lessons learned repository - module attribute count - platform support level - number of projects in parallel - layout complexity - technical factors - output complexity - concern operation count - stratum - model collection complexity - section count</t>
+          <t>cocomo - expert judgment</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Britto_2016 - Bajta</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>centralized - number of team members - project activities.other - reliability - maintenance - machine learning - staff/cost - detail planning - estimated value - project domain.other - implementation - telecommunication - producte requirement.other - systems engineering - socio-cultural distance - geographical distance - finance - expert judgment - individual - feasibility study - statistics analysis - preliminary planning - near offshore - healthcare - fuzzy similar - capability maturity model integration - team structure.not considered - constructive cost model - portfolio - genetic algorithms - system investigation - non-machine learning - far offshore - size report - actual cost.value - analysis - case-based reasoning - conceptualization - planning approaches.other - number of sites.value - security - maintainability - execution - testing - team experience.not considered - temporal distance - group-based estimation - commissioning - effort hours - agile - risk - close onshore - team structure.considered - baseline comparison - design - hardware - team experience.considered - sensitivity analysis - delphi - availability - distant onshore - variation reduction - performance - legal entity - estimation stage.early &amp; late - location - estimator &amp; provider - provider - geographic distance - estimator - estimation stage.late - semi-distributed - estimation stage.early - distributed</t>
+          <t>Dasthi - Usman</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>analogy base - analogy - expert judgment - expert judgement</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Britto_2016 - Britto_2017</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>centralized - in-house experience - reusability level - object-oriented function points - reused media allocation - domain experience level - requirements clarity level - concern module count - cluster count - new media count - model slot size - data flow complexity - requirements volatility level - inner/sub concern count - interface complexity - flexibility level - motivation level - development restriction - entity count - compactness - concurrency level - team size - attribute count - spi program - focus factor - model link complexity - stability level - software reuse - semantic association count - low feature count - media duration - model node size - it literacy - publishing model unit count - usability level - testability level - client.personality - structure - database size - architecture - processing requirements - metrics’ program - cluster slot count - reused component count - project management level - international function point users group - component granularity level - web page allocation - lines of code - novelty level - scalability level - data usage complexity - documentation level - anchor count - media count - operational mode - class coupling - feature count - product.type - high feature count - reused comment count - risk level - object-oriented heuristic function points - cohesion complexity - use case count - design volatility - resource level - slot count - authoring tool type - model association complexity - accessibility level - mapped workflows - server script count - reused media count - reused lines of code - storage constraint - cluster node size - cohesion - tool experience level - module count - work team level - component complexity - process efficiency level - oo experience level - program count - collection slot size - deployment platform experience level - diffusion cut count - quality level - media allocation - productivity level - module point cut count - reused program count - connectivity density - new web page count - indifferent concern count - readability level - client script count - security level - component slot count - segment count - programming language experience level - availability level - communication level - memory efficiency level - link count - control flow complexity - web objects - concern coupling - experience level - platform volatility level - reliability level - requirements novelty level - innovation level - portability level - number of programming languages - operation count - project.type - team capability - input complexity - installability level - slot granularity level - maintainability level - adaptation complexity - page complexity - collection center slot count - time restriction - node count - reused low feature count - software development experience - modularity level - time efficiency level - association slot size - statement count - node slot size - publishing unit count - association center slot count - component count - common software measurement international consortium - information slot count - data web points - trainability level - new complexity - reused high feature count - cyclomatic complexity - robustness level - integration with legacy systems - total complexity - rapid app development - web page count - infrastructure - comment count - class complexity - difficulty level - lessons learned repository - module attribute count - platform support level - number of projects in parallel - layout complexity - technical factors - output complexity - concern operation count - stratum - model collection complexity - section count - legal entity - estimation stage.early &amp; late - location - estimator &amp; provider - provider - geographic distance - estimator - temporal distance - estimation stage.late - semi-distributed - estimation stage.early - distributed</t>
+          <t>Mendes - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>media - media allocation - media count - complexity - total complexity - class complexity - component complexity - output complexity - input complexity - cyclomatic complexity - new complexity</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Britto_2016 - Dashti</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>centralized - legal entity - artificial neural networks - software evaluation and estimation for risk - software life cycle management - evolutionary - analogy-based - constructive cost model - swarm - basic-combination - fuzzy logic - ai-combined hybrid - expert judgment - estimation stage.early &amp; late - location - estimator &amp; provider - provider - geographic distance - estimator - temporal distance - estimation stage.late - semi-distributed - estimation stage.early - distributed</t>
+          <t>Mendes - Usman</t>
+        </is>
+      </c>
+      <c r="B14" s="8" t="inlineStr">
+        <is>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Britto_2016 - Mendes</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>centralized - interval - late size metric - web application - program/sript - web software application - absolute - length - ratio - media - indirect - specific - functionality - early size metric - validation.none - direct - solution-oriented metric - validated theoretically - complexity - ordinal - web hypermedia application - nominal - validation.both - validated empirically - problem-oriented metric - nonspecific - motivation - legal entity - estimation stage.early &amp; late - location - estimator &amp; provider - provider - geographic distance - estimator - temporal distance - estimation stage.late - semi-distributed - estimation stage.early - distributed</t>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>far offshore - near offshore - distant onshore - reliability - maintainability - close onshore - health - healthcare - analysis - statistical analysis - financial - finance - performance - value - maintenance - security - expert judgement - expert judgment - not applicable - not considered - no. of team members - number of team members - availability - testing - design - implementation - estimate value(s) - estimated value - considered - bidding</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Britto_2016 - Usman</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>centralized - dynamic systems development method - three point type - function points - education - extreme programming - number of entities estimated - transportation - unit.other - expert judgement - team's prior experience.not considered - customized scrum - task - crystal - bias of relative error - distributed teams.not considered - distributed: far offshore - median magnitude of relative error - communications industry - performance - maintenance - accuracy measure.not used - estimated activities.all - planning level.bidding - accuracy measure.other - estimate value(s) - kanban - use case - team size.value - analysis - team's skill level.considered - customized extreme programming - considered without any metric - security - estimation technique.other - non functional requirements.not considered - pair/days - government/military - non functional requirements.other - user story - project somain.other - user case points - distribution type - estimation entity.other - availability - reliability - distributed teams.not applicable - implementation - manufacturing - scrum - use case points method - financial - team's skill level.not considered - type.single - ideal hours - maintainability - testing - type.group - distributed: close onshore - point type - customer communication.not considered - planning level.sprint - distributed: distant onshore - not used effort predictors - distributed teams.considered - planning level.release - team's prior experience.considered - mean magnitude of relative error - analogy - house/days - actual effort.value - accuracy level.value - project setting.co-located - feature-driven development - health - planning level.daily - planning poker - other effort predictors - distributed: near offshore - customer communication.considered - design - retail/wholesale - other type - story points - legal entity - estimation stage.early &amp; late - location - estimator &amp; provider - provider - geographic distance - estimator - temporal distance - estimation stage.late - semi-distributed - estimation stage.early - distributed</t>
+          <t>Usman - Britto_2016</t>
+        </is>
+      </c>
+      <c r="B16" s="6" t="inlineStr">
+        <is>
+          <t>distribution - distributed - estimate value(s) - estimator</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Dashti - Bajta</t>
-        </is>
-      </c>
-      <c r="B17" s="5" t="inlineStr">
-        <is>
-          <t>legal entity - number of team members - project activities.other - reliability - maintenance - machine learning - staff/cost - detail planning - estimated value - project domain.other - implementation - telecommunication - producte requirement.other - systems engineering - socio-cultural distance - geographical distance - finance - expert judgment - individual - feasibility study - statistics analysis - preliminary planning - near offshore - healthcare - fuzzy similar - capability maturity model integration - team structure.not considered - constructive cost model - portfolio - genetic algorithms - system investigation - non-machine learning - far offshore - size report - actual cost.value - analysis - case-based reasoning - conceptualization - planning approaches.other - number of sites.value - security - maintainability - execution - testing - team experience.not considered - temporal distance - group-based estimation - commissioning - effort hours - agile - risk - close onshore - team structure.considered - baseline comparison - design - hardware - team experience.considered - sensitivity analysis - delphi - availability - distant onshore - variation reduction - performance - artificial neural networks - software evaluation and estimation for risk - software life cycle management - evolutionary - analogy-based - swarm - basic-combination - fuzzy logic - ai-combined hybrid</t>
+          <t>Usman - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>reliability - reliability level - maintainability - maintainability level - security - security level - no. of team members - team size - availability - availability level</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Dashti - Britto_2017</t>
-        </is>
-      </c>
-      <c r="B18" s="6" t="inlineStr">
-        <is>
-          <t>legal entity - in-house experience - reusability level - object-oriented function points - reused media allocation - domain experience level - requirements clarity level - concern module count - cluster count - new media count - model slot size - data flow complexity - requirements volatility level - inner/sub concern count - interface complexity - flexibility level - motivation level - development restriction - entity count - compactness - concurrency level - team size - attribute count - spi program - focus factor - model link complexity - stability level - software reuse - semantic association count - low feature count - media duration - model node size - it literacy - publishing model unit count - usability level - testability level - client.personality - structure - database size - architecture - processing requirements - metrics’ program - cluster slot count - reused component count - project management level - international function point users group - component granularity level - web page allocation - lines of code - novelty level - scalability level - data usage complexity - documentation level - anchor count - media count - operational mode - class coupling - feature count - product.type - high feature count - reused comment count - risk level - object-oriented heuristic function points - cohesion complexity - use case count - design volatility - resource level - slot count - authoring tool type - model association complexity - accessibility level - mapped workflows - server script count - reused media count - reused lines of code - storage constraint - cluster node size - cohesion - tool experience level - module count - work team level - component complexity - process efficiency level - oo experience level - program count - collection slot size - deployment platform experience level - diffusion cut count - quality level - media allocation - productivity level - module point cut count - reused program count - connectivity density - new web page count - indifferent concern count - readability level - client script count - security level - component slot count - segment count - programming language experience level - availability level - communication level - memory efficiency level - link count - control flow complexity - web objects - concern coupling - experience level - platform volatility level - reliability level - requirements novelty level - innovation level - portability level - number of programming languages - operation count - project.type - team capability - input complexity - installability level - slot granularity level - maintainability level - adaptation complexity - page complexity - collection center slot count - time restriction - node count - reused low feature count - software development experience - modularity level - time efficiency level - association slot size - statement count - node slot size - publishing unit count - association center slot count - component count - common software measurement international consortium - information slot count - data web points - trainability level - new complexity - reused high feature count - cyclomatic complexity - robustness level - integration with legacy systems - total complexity - rapid app development - web page count - infrastructure - comment count - class complexity - difficulty level - lessons learned repository - module attribute count - platform support level - number of projects in parallel - layout complexity - technical factors - output complexity - concern operation count - stratum - model collection complexity - section count - artificial neural networks - software evaluation and estimation for risk - software life cycle management - evolutionary - analogy-based - constructive cost model - swarm - basic-combination - fuzzy logic - ai-combined hybrid - expert judgment</t>
+          <t>Usman - Dasthi</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>analogy - analogy base - expert judgement - expert judgment</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Dashti - Britto_2016</t>
-        </is>
-      </c>
-      <c r="B19" s="5" t="inlineStr">
-        <is>
-          <t>legal entity - centralized - estimation stage.early &amp; late - location - estimator &amp; provider - provider - geographic distance - estimator - temporal distance - estimation stage.late - semi-distributed - estimation stage.early - distributed - artificial neural networks - software evaluation and estimation for risk - software life cycle management - evolutionary - analogy-based - constructive cost model - swarm - basic-combination - fuzzy logic - ai-combined hybrid - expert judgment</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Dashti - Mendes</t>
-        </is>
-      </c>
-      <c r="B20" s="6" t="inlineStr">
-        <is>
-          <t>legal entity - interval - late size metric - web application - program/sript - web software application - absolute - length - ratio - media - indirect - specific - functionality - early size metric - validation.none - direct - solution-oriented metric - validated theoretically - complexity - ordinal - web hypermedia application - nominal - validation.both - validated empirically - problem-oriented metric - nonspecific - motivation - artificial neural networks - software evaluation and estimation for risk - software life cycle management - evolutionary - analogy-based - constructive cost model - swarm - basic-combination - fuzzy logic - ai-combined hybrid - expert judgment</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Dashti - Usman</t>
-        </is>
-      </c>
-      <c r="B21" s="6" t="inlineStr">
-        <is>
-          <t>legal entity - dynamic systems development method - three point type - function points - education - extreme programming - number of entities estimated - transportation - unit.other - expert judgement - team's prior experience.not considered - customized scrum - task - crystal - bias of relative error - distributed teams.not considered - distributed: far offshore - median magnitude of relative error - communications industry - performance - maintenance - accuracy measure.not used - estimated activities.all - planning level.bidding - accuracy measure.other - estimate value(s) - kanban - use case - team size.value - analysis - team's skill level.considered - customized extreme programming - considered without any metric - security - estimation technique.other - non functional requirements.not considered - pair/days - government/military - non functional requirements.other - user story - project somain.other - user case points - distribution type - estimation entity.other - availability - reliability - distributed teams.not applicable - implementation - manufacturing - scrum - use case points method - financial - team's skill level.not considered - type.single - ideal hours - maintainability - testing - type.group - distributed: close onshore - point type - customer communication.not considered - planning level.sprint - distributed: distant onshore - not used effort predictors - distributed teams.considered - planning level.release - team's prior experience.considered - mean magnitude of relative error - analogy - house/days - actual effort.value - accuracy level.value - project setting.co-located - feature-driven development - health - planning level.daily - planning poker - other effort predictors - distributed: near offshore - customer communication.considered - design - retail/wholesale - other type - story points - artificial neural networks - software evaluation and estimation for risk - software life cycle management - evolutionary - analogy-based - constructive cost model - swarm - basic-combination - fuzzy logic - ai-combined hybrid - expert judgment</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Mendes - Bajta</t>
-        </is>
-      </c>
-      <c r="B22" s="4" t="inlineStr">
-        <is>
-          <t>interval - number of team members - project activities.other - reliability - maintenance - machine learning - staff/cost - detail planning - estimated value - project domain.other - implementation - telecommunication - producte requirement.other - systems engineering - socio-cultural distance - geographical distance - finance - expert judgment - individual - feasibility study - statistics analysis - preliminary planning - near offshore - healthcare - fuzzy similar - capability maturity model integration - team structure.not considered - constructive cost model - portfolio - genetic algorithms - system investigation - non-machine learning - far offshore - size report - actual cost.value - analysis - case-based reasoning - conceptualization - planning approaches.other - number of sites.value - security - maintainability - execution - testing - team experience.not considered - temporal distance - group-based estimation - commissioning - effort hours - agile - risk - close onshore - team structure.considered - baseline comparison - design - hardware - team experience.considered - sensitivity analysis - delphi - availability - distant onshore - variation reduction - performance - late size metric - web application - program/sript - web software application - absolute - length - ratio - media - indirect - specific - functionality - early size metric - validation.none - direct - solution-oriented metric - validated theoretically - complexity - ordinal - web hypermedia application - nominal - validation.both - validated empirically - problem-oriented metric - nonspecific - motivation</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Mendes - Britto_2017</t>
-        </is>
-      </c>
-      <c r="B23" s="4" t="inlineStr">
-        <is>
-          <t>interval - in-house experience - reusability level - object-oriented function points - reused media allocation - domain experience level - requirements clarity level - concern module count - cluster count - new media count - model slot size - data flow complexity - requirements volatility level - inner/sub concern count - interface complexity - flexibility level - motivation level - development restriction - entity count - compactness - concurrency level - team size - attribute count - spi program - focus factor - model link complexity - stability level - software reuse - semantic association count - low feature count - media duration - model node size - it literacy - publishing model unit count - usability level - testability level - client.personality - structure - database size - architecture - processing requirements - metrics’ program - cluster slot count - reused component count - project management level - international function point users group - component granularity level - web page allocation - lines of code - novelty level - scalability level - data usage complexity - documentation level - anchor count - media count - operational mode - class coupling - feature count - product.type - high feature count - reused comment count - risk level - object-oriented heuristic function points - cohesion complexity - use case count - design volatility - resource level - slot count - authoring tool type - model association complexity - accessibility level - mapped workflows - server script count - reused media count - reused lines of code - storage constraint - cluster node size - cohesion - tool experience level - module count - work team level - component complexity - process efficiency level - oo experience level - program count - collection slot size - deployment platform experience level - diffusion cut count - quality level - media allocation - productivity level - module point cut count - reused program count - connectivity density - new web page count - indifferent concern count - readability level - client script count - security level - component slot count - segment count - programming language experience level - availability level - communication level - memory efficiency level - link count - control flow complexity - web objects - concern coupling - experience level - platform volatility level - reliability level - requirements novelty level - innovation level - portability level - number of programming languages - operation count - project.type - team capability - input complexity - installability level - slot granularity level - maintainability level - adaptation complexity - page complexity - collection center slot count - time restriction - node count - reused low feature count - software development experience - modularity level - time efficiency level - association slot size - statement count - node slot size - publishing unit count - association center slot count - component count - common software measurement international consortium - information slot count - data web points - trainability level - new complexity - reused high feature count - cyclomatic complexity - robustness level - integration with legacy systems - total complexity - rapid app development - web page count - infrastructure - comment count - class complexity - difficulty level - lessons learned repository - module attribute count - platform support level - number of projects in parallel - layout complexity - technical factors - output complexity - concern operation count - stratum - model collection complexity - section count - late size metric - web application - program/sript - web software application - absolute - length - ratio - media - indirect - specific - functionality - early size metric - validation.none - direct - solution-oriented metric - validated theoretically - complexity - ordinal - web hypermedia application - nominal - validation.both - validated empirically - problem-oriented metric - nonspecific - motivation</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Mendes - Britto_2016</t>
-        </is>
-      </c>
-      <c r="B24" s="4" t="inlineStr">
-        <is>
-          <t>interval - centralized - legal entity - estimation stage.early &amp; late - location - estimator &amp; provider - provider - geographic distance - estimator - temporal distance - estimation stage.late - semi-distributed - estimation stage.early - distributed - late size metric - web application - program/sript - web software application - absolute - length - ratio - media - indirect - specific - functionality - early size metric - validation.none - direct - solution-oriented metric - validated theoretically - complexity - ordinal - web hypermedia application - nominal - validation.both - validated empirically - problem-oriented metric - nonspecific - motivation</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Mendes - Dashti</t>
-        </is>
-      </c>
-      <c r="B25" s="4" t="inlineStr">
-        <is>
-          <t>interval - legal entity - artificial neural networks - software evaluation and estimation for risk - software life cycle management - evolutionary - analogy-based - constructive cost model - swarm - basic-combination - fuzzy logic - ai-combined hybrid - expert judgment - late size metric - web application - program/sript - web software application - absolute - length - ratio - media - indirect - specific - functionality - early size metric - validation.none - direct - solution-oriented metric - validated theoretically - complexity - ordinal - web hypermedia application - nominal - validation.both - validated empirically - problem-oriented metric - nonspecific - motivation</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Mendes - Usman</t>
-        </is>
-      </c>
-      <c r="B26" s="4" t="inlineStr">
-        <is>
-          <t>interval - dynamic systems development method - three point type - function points - education - extreme programming - number of entities estimated - transportation - unit.other - expert judgement - team's prior experience.not considered - customized scrum - task - crystal - bias of relative error - distributed teams.not considered - distributed: far offshore - median magnitude of relative error - communications industry - performance - maintenance - accuracy measure.not used - estimated activities.all - planning level.bidding - accuracy measure.other - estimate value(s) - kanban - use case - team size.value - analysis - team's skill level.considered - customized extreme programming - considered without any metric - security - estimation technique.other - non functional requirements.not considered - pair/days - government/military - non functional requirements.other - user story - project somain.other - user case points - distribution type - estimation entity.other - availability - reliability - distributed teams.not applicable - implementation - manufacturing - scrum - use case points method - financial - team's skill level.not considered - type.single - ideal hours - maintainability - testing - type.group - distributed: close onshore - point type - customer communication.not considered - planning level.sprint - distributed: distant onshore - not used effort predictors - distributed teams.considered - planning level.release - team's prior experience.considered - mean magnitude of relative error - analogy - house/days - actual effort.value - accuracy level.value - project setting.co-located - feature-driven development - health - planning level.daily - planning poker - other effort predictors - distributed: near offshore - customer communication.considered - design - retail/wholesale - other type - story points - late size metric - web application - program/sript - web software application - absolute - length - ratio - media - indirect - specific - functionality - early size metric - validation.none - direct - solution-oriented metric - validated theoretically - complexity - ordinal - web hypermedia application - nominal - validation.both - validated empirically - problem-oriented metric - nonspecific - motivation</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Usman - Bajta</t>
-        </is>
-      </c>
-      <c r="B27" s="2" t="inlineStr">
-        <is>
-          <t>dynamic systems development method - number of team members - project activities.other - reliability - maintenance - machine learning - staff/cost - detail planning - estimated value - project domain.other - implementation - telecommunication - producte requirement.other - systems engineering - socio-cultural distance - geographical distance - finance - expert judgment - individual - feasibility study - statistics analysis - preliminary planning - near offshore - healthcare - fuzzy similar - capability maturity model integration - team structure.not considered - constructive cost model - portfolio - genetic algorithms - system investigation - non-machine learning - far offshore - size report - actual cost.value - analysis - case-based reasoning - conceptualization - planning approaches.other - number of sites.value - security - maintainability - execution - testing - team experience.not considered - temporal distance - group-based estimation - commissioning - effort hours - agile - risk - close onshore - team structure.considered - baseline comparison - design - hardware - team experience.considered - sensitivity analysis - delphi - availability - distant onshore - variation reduction - performance - three point type - function points - education - extreme programming - number of entities estimated - transportation - unit.other - expert judgement - team's prior experience.not considered - customized scrum - task - crystal - bias of relative error - distributed teams.not considered - distributed: far offshore - median magnitude of relative error - communications industry - accuracy measure.not used - estimated activities.all - planning level.bidding - accuracy measure.other - estimate value(s) - kanban - use case - team size.value - team's skill level.considered - customized extreme programming - considered without any metric - estimation technique.other - non functional requirements.not considered - pair/days - government/military - non functional requirements.other - user story - project somain.other - user case points - distribution type - estimation entity.other - distributed teams.not applicable - manufacturing - scrum - use case points method - financial - team's skill level.not considered - type.single - ideal hours - type.group - distributed: close onshore - point type - customer communication.not considered - planning level.sprint - distributed: distant onshore - not used effort predictors - distributed teams.considered - planning level.release - team's prior experience.considered - mean magnitude of relative error - analogy - house/days - actual effort.value - accuracy level.value - project setting.co-located - feature-driven development - health - planning level.daily - planning poker - other effort predictors - distributed: near offshore - customer communication.considered - retail/wholesale - other type - story points</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Usman - Britto_2017</t>
-        </is>
-      </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>dynamic systems development method - in-house experience - reusability level - object-oriented function points - reused media allocation - domain experience level - requirements clarity level - concern module count - cluster count - new media count - model slot size - data flow complexity - requirements volatility level - inner/sub concern count - interface complexity - flexibility level - motivation level - development restriction - entity count - compactness - concurrency level - team size - attribute count - spi program - focus factor - model link complexity - stability level - software reuse - semantic association count - low feature count - media duration - model node size - it literacy - publishing model unit count - usability level - testability level - client.personality - structure - database size - architecture - processing requirements - metrics’ program - cluster slot count - reused component count - project management level - international function point users group - component granularity level - web page allocation - lines of code - novelty level - scalability level - data usage complexity - documentation level - anchor count - media count - operational mode - class coupling - feature count - product.type - high feature count - reused comment count - risk level - object-oriented heuristic function points - cohesion complexity - use case count - design volatility - resource level - slot count - authoring tool type - model association complexity - accessibility level - mapped workflows - server script count - reused media count - reused lines of code - storage constraint - cluster node size - cohesion - tool experience level - module count - work team level - component complexity - process efficiency level - oo experience level - program count - collection slot size - deployment platform experience level - diffusion cut count - quality level - media allocation - productivity level - module point cut count - reused program count - connectivity density - new web page count - indifferent concern count - readability level - client script count - security level - component slot count - segment count - programming language experience level - availability level - communication level - memory efficiency level - link count - control flow complexity - web objects - concern coupling - experience level - platform volatility level - reliability level - requirements novelty level - innovation level - portability level - number of programming languages - operation count - project.type - team capability - input complexity - installability level - slot granularity level - maintainability level - adaptation complexity - page complexity - collection center slot count - time restriction - node count - reused low feature count - software development experience - modularity level - time efficiency level - association slot size - statement count - node slot size - publishing unit count - association center slot count - component count - common software measurement international consortium - information slot count - data web points - trainability level - new complexity - reused high feature count - cyclomatic complexity - robustness level - integration with legacy systems - total complexity - rapid app development - web page count - infrastructure - comment count - class complexity - difficulty level - lessons learned repository - module attribute count - platform support level - number of projects in parallel - layout complexity - technical factors - output complexity - concern operation count - stratum - model collection complexity - section count - three point type - function points - education - extreme programming - number of entities estimated - transportation - unit.other - expert judgement - team's prior experience.not considered - customized scrum - task - crystal - bias of relative error - distributed teams.not considered - distributed: far offshore - median magnitude of relative error - communications industry - performance - maintenance - accuracy measure.not used - estimated activities.all - planning level.bidding - accuracy measure.other - estimate value(s) - kanban - use case - team size.value - analysis - team's skill level.considered - customized extreme programming - considered without any metric - security - estimation technique.other - non functional requirements.not considered - pair/days - government/military - non functional requirements.other - user story - project somain.other - user case points - distribution type - estimation entity.other - availability - reliability - distributed teams.not applicable - implementation - manufacturing - scrum - use case points method - financial - team's skill level.not considered - type.single - ideal hours - maintainability - testing - type.group - distributed: close onshore - point type - customer communication.not considered - planning level.sprint - distributed: distant onshore - not used effort predictors - distributed teams.considered - planning level.release - team's prior experience.considered - mean magnitude of relative error - analogy - house/days - actual effort.value - accuracy level.value - project setting.co-located - feature-driven development - health - planning level.daily - planning poker - other effort predictors - distributed: near offshore - customer communication.considered - design - retail/wholesale - other type - story points</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Usman - Britto_2016</t>
-        </is>
-      </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>dynamic systems development method - centralized - legal entity - estimation stage.early &amp; late - location - estimator &amp; provider - provider - geographic distance - estimator - temporal distance - estimation stage.late - semi-distributed - estimation stage.early - distributed - three point type - function points - education - extreme programming - number of entities estimated - transportation - unit.other - expert judgement - team's prior experience.not considered - customized scrum - task - crystal - bias of relative error - distributed teams.not considered - distributed: far offshore - median magnitude of relative error - communications industry - performance - maintenance - accuracy measure.not used - estimated activities.all - planning level.bidding - accuracy measure.other - estimate value(s) - kanban - use case - team size.value - analysis - team's skill level.considered - customized extreme programming - considered without any metric - security - estimation technique.other - non functional requirements.not considered - pair/days - government/military - non functional requirements.other - user story - project somain.other - user case points - distribution type - estimation entity.other - availability - reliability - distributed teams.not applicable - implementation - manufacturing - scrum - use case points method - financial - team's skill level.not considered - type.single - ideal hours - maintainability - testing - type.group - distributed: close onshore - point type - customer communication.not considered - planning level.sprint - distributed: distant onshore - not used effort predictors - distributed teams.considered - planning level.release - team's prior experience.considered - mean magnitude of relative error - analogy - house/days - actual effort.value - accuracy level.value - project setting.co-located - feature-driven development - health - planning level.daily - planning poker - other effort predictors - distributed: near offshore - customer communication.considered - design - retail/wholesale - other type - story points</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Usman - Dashti</t>
-        </is>
-      </c>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>dynamic systems development method - legal entity - artificial neural networks - software evaluation and estimation for risk - software life cycle management - evolutionary - analogy-based - constructive cost model - swarm - basic-combination - fuzzy logic - ai-combined hybrid - expert judgment - three point type - function points - education - extreme programming - number of entities estimated - transportation - unit.other - expert judgement - team's prior experience.not considered - customized scrum - task - crystal - bias of relative error - distributed teams.not considered - distributed: far offshore - median magnitude of relative error - communications industry - performance - maintenance - accuracy measure.not used - estimated activities.all - planning level.bidding - accuracy measure.other - estimate value(s) - kanban - use case - team size.value - analysis - team's skill level.considered - customized extreme programming - considered without any metric - security - estimation technique.other - non functional requirements.not considered - pair/days - government/military - non functional requirements.other - user story - project somain.other - user case points - distribution type - estimation entity.other - availability - reliability - distributed teams.not applicable - implementation - manufacturing - scrum - use case points method - financial - team's skill level.not considered - type.single - ideal hours - maintainability - testing - type.group - distributed: close onshore - point type - customer communication.not considered - planning level.sprint - distributed: distant onshore - not used effort predictors - distributed teams.considered - planning level.release - team's prior experience.considered - mean magnitude of relative error - analogy - house/days - actual effort.value - accuracy level.value - project setting.co-located - feature-driven development - health - planning level.daily - planning poker - other effort predictors - distributed: near offshore - customer communication.considered - design - retail/wholesale - other type - story points</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
           <t>Usman - Mendes</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>dynamic systems development method - interval - late size metric - web application - program/sript - web software application - absolute - length - ratio - media - indirect - specific - functionality - early size metric - validation.none - direct - solution-oriented metric - validated theoretically - complexity - ordinal - web hypermedia application - nominal - validation.both - validated empirically - problem-oriented metric - nonspecific - motivation - three point type - function points - education - extreme programming - number of entities estimated - transportation - unit.other - expert judgement - team's prior experience.not considered - customized scrum - task - crystal - bias of relative error - distributed teams.not considered - distributed: far offshore - median magnitude of relative error - communications industry - performance - maintenance - accuracy measure.not used - estimated activities.all - planning level.bidding - accuracy measure.other - estimate value(s) - kanban - use case - team size.value - analysis - team's skill level.considered - customized extreme programming - considered without any metric - security - estimation technique.other - non functional requirements.not considered - pair/days - government/military - non functional requirements.other - user story - project somain.other - user case points - distribution type - estimation entity.other - availability - reliability - distributed teams.not applicable - implementation - manufacturing - scrum - use case points method - financial - team's skill level.not considered - type.single - ideal hours - maintainability - testing - type.group - distributed: close onshore - point type - customer communication.not considered - planning level.sprint - distributed: distant onshore - not used effort predictors - distributed teams.considered - planning level.release - team's prior experience.considered - mean magnitude of relative error - analogy - house/days - actual effort.value - accuracy level.value - project setting.co-located - feature-driven development - health - planning level.daily - planning poker - other effort predictors - distributed: near offshore - customer communication.considered - design - retail/wholesale - other type - story points</t>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>other</t>
         </is>
       </c>
     </row>

--- a/colored_word_pairs.xlsx
+++ b/colored_word_pairs.xlsx
@@ -26,46 +26,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <color rgb="00FF6384"/>
+    </font>
+    <font>
+      <color rgb="0036A2EB"/>
+    </font>
+    <font>
+      <color rgb="00FFCE56"/>
+    </font>
+    <font>
+      <color rgb="004BC0C0"/>
+    </font>
+    <font>
+      <color rgb="009966FF"/>
+    </font>
+    <font>
+      <color rgb="00FF9F40"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="0036A2EB"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFCE56"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="004BC0C0"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="009966FF"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FF9F40"/>
+    </font>
+    <font>
       <b val="1"/>
       <color rgb="00FF6384"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <color rgb="0036A2EB"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <color rgb="00FFCE56"/>
-    </font>
-    <font>
-      <color rgb="004BC0C0"/>
-    </font>
-    <font>
-      <color rgb="009966FF"/>
-    </font>
-    <font>
-      <color rgb="00FF9F40"/>
-    </font>
-    <font>
-      <color rgb="00FF6384"/>
-    </font>
-    <font>
-      <color rgb="0036A2EB"/>
-    </font>
-    <font>
-      <color rgb="00FFCE56"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <color rgb="004BC0C0"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <color rgb="009966FF"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <color rgb="00FF9F40"/>
     </font>
   </fonts>
   <fills count="2">
@@ -88,16 +88,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -463,7 +464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,24 +487,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bajta - Britto_2016</t>
+          <t>Bajta - Britto_2017</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>estimated value - estimator - temporal distance</t>
+          <t>risk - risk level - hardware - technical factors - platform support level - design - architecture - maintainability - portability level - installability level - maintainability level - reliability level - reusability level - size report - team size - performance - time efficiency level - process efficiency level - quality level - availability - availability level - individual - personality - security - security level - reliability - robustness level - testing - testability level - effort hours - maintenance - no of team members - team capability - work team level</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bajta - Britto_2017</t>
+          <t>Bajta - Britto_2016</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>reliability - reliability level - risk - risk level - number of team members - team size - maintainability - maintainability level - security - security level - availability - availability level</t>
+          <t>estimate value - estimator &amp; provider - estimator - temporal distance - relationship.geographic distance - site.temporal distance - relationship.temporal distance - geographical distance - site.geographic distance</t>
         </is>
       </c>
     </row>
@@ -515,55 +516,55 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>expert judgment - cocomo</t>
+          <t>constructive cost model - fuzzy similar - fuzzy logic - expert judgment - machine learning - artificial neural networks</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bajta - Usman</t>
+          <t>Bajta - Mendes</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>reliability - maintainability - analysis - near offshore - far offshore - close onshore - distant onshore - number of team members - no. of team members - performance - finance - financial - value - expert judgment - expert judgement - maintenance - security - healthcare - health - not considered - not applicable - considered - estimated value - estimate value(s) - availability - testing - design - bidding - statistical analysis - implementation</t>
+          <t>not considered - validated theoretically - size report - early size metric - late size metric - implementation - functionality - performance - considered</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Britto_2016 - Bajta</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>estimator - estimated value - temporal distance</t>
+          <t>Bajta - Usman</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>estimate value - estimation entity.other - number of entities estimated.value - estimation techniques.other - estimate value(s) - actual effort.value - not considered - not used - considered - not applicable - agile - customized scrum - scrum - group-based estimation - telecommunication - communications industry - near offshore - distributed: far offshore - distributed: distant onshore - distributed: near offshore - distributed: close onshore - design - maintainability - availability - reliability - maintenance - healthcare - health - size report - size.other - implementation - performance - analysis - execution - task - finance - financial - statistics analysis - individual - single - security - other - project domain.other - unit.other - se - value - system investigation - far offshore - expert judgment - expert judgement - close onshore - testing - effort hours - ideal hours - effort estimate.type.other - hours/days - distant onshore - no of team members - no. of team members</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Britto_2016 - Usman</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>distributed - distribution - estimator - estimate value(s)</t>
+          <t>Britto_2017 - Bajta</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>technical factors - hardware - portability level - maintainability - risk level - risk - team capability - no of team members - time efficiency level - performance - effort hours - work team level - architecture - design - process efficiency level - availability level - availability - testability level - testing - personality - individual - robustness level - reliability - installability level - team size - size report - security level - security - quality level - maintainability level - maintenance - platform support level - reliability level - reusability level</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Britto_2017 - Bajta</t>
-        </is>
-      </c>
-      <c r="B8" s="6" t="inlineStr">
-        <is>
-          <t>team size - number of team members - security level - security - risk level - risk - maintainability level - maintainability - reliability level - reliability - availability level - availability</t>
+          <t>Britto_2017 - Dasthi</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>software development experience - software life cycle management</t>
         </is>
       </c>
     </row>
@@ -573,9 +574,9 @@
           <t>Britto_2017 - Mendes</t>
         </is>
       </c>
-      <c r="B9" s="5" t="inlineStr">
-        <is>
-          <t>total complexity - complexity - class complexity - component complexity - output complexity - media allocation - media - input complexity - cyclomatic complexity - media count - new complexity</t>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>interface complexity - complexity - control flow complexity - media count - media - web page allocation - web application - project.type - model dependency.specific - adaptation complexity - program count - program/script - class complexity - class.length - cyclomatic complexity - web objects - web software application - web hypermedia application - model collection complexity - difficulty level - data flow complexity - motivation level - motivation - data usage complexity - new media count - media allocation - cohesion complexity - page complexity - output complexity - new complexity - input complexity - component complexity - model association complexity - total complexity - media duration - layout complexity</t>
         </is>
       </c>
     </row>
@@ -585,117 +586,165 @@
           <t>Britto_2017 - Usman</t>
         </is>
       </c>
-      <c r="B10" s="6" t="inlineStr">
-        <is>
-          <t>team size - no. of team members - security level - security - maintainability level - maintainability - reliability level - reliability - availability level - availability</t>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>entity count - estimation entity.other - number of entities estimated.value - portability level - maintainability - project.infrastructure - project domain.other - team capability - no. of team members - project.type - effort estimate.type.other - time efficiency level - performance - work team level - time restriction - hours/days - use case count - use case - use case points method - not used - user case points - requirements novelty level - non functional requirements.other - data web points - point - international function point users group - function points - architecture - design - requirements clarity level - process efficiency level - availability level - availability - testability level - testing - processing requirements - object-oriented function points - requirements volatility level - robustness level - reliability - installability level - implementation - team size - security level - security - quality level - accuracy level.value - object-oriented heuristic function points - maintainability level - maintenance - reliability level - reusability level</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Dasthi - Bajta</t>
-        </is>
-      </c>
-      <c r="B11" s="4" t="inlineStr">
-        <is>
-          <t>cocomo - expert judgment</t>
+          <t>Britto_2016 - Bajta</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
+        <is>
+          <t>estimator &amp; provider - estimate value - relationship.geographic distance - temporal distance - geographical distance - site.geographic distance - estimator - site.temporal distance - relationship.temporal distance</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Dasthi - Usman</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>analogy base - analogy - expert judgment - expert judgement</t>
+          <t>Britto_2016 - Usman</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>semi-distributed - distributed: far offshore - distributed: near offshore - distribution - estimator &amp; provider - estimation entity.other - estimation techniques.other - estimate value(s) - relationship.location - co-located - centralized - estimator - distributed - distributed: distant onshore - distributed: close onshore</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Mendes - Britto_2017</t>
-        </is>
-      </c>
-      <c r="B13" s="5" t="inlineStr">
-        <is>
-          <t>media - media allocation - media count - complexity - total complexity - class complexity - component complexity - output complexity - input complexity - cyclomatic complexity - new complexity</t>
+          <t>Dasthi - Bajta</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>expert judgment - constructive cost model - artificial neural networks - machine learning - fuzzy logic - fuzzy similar</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Mendes - Usman</t>
+          <t>Dasthi - Britto_2017</t>
         </is>
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>software life cycle management - software development experience</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Usman - Bajta</t>
-        </is>
-      </c>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>far offshore - near offshore - distant onshore - reliability - maintainability - close onshore - health - healthcare - analysis - statistical analysis - financial - finance - performance - value - maintenance - security - expert judgement - expert judgment - not applicable - not considered - no. of team members - number of team members - availability - testing - design - implementation - estimate value(s) - estimated value - considered - bidding</t>
+          <t>Dasthi - Usman</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>expert judgment - expert judgement - analogy-based - analogy</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Usman - Britto_2016</t>
+          <t>Mendes - Bajta</t>
         </is>
       </c>
       <c r="B16" s="6" t="inlineStr">
         <is>
-          <t>distribution - distributed - estimate value(s) - estimator</t>
+          <t>validated theoretically - not considered - considered - functionality - implementation - performance - early size metric - size report - late size metric</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Usman - Britto_2017</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>reliability - reliability level - maintainability - maintainability level - security - security level - no. of team members - team size - availability - availability level</t>
+          <t>Mendes - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>web software application - web objects - motivation - motivation level - program/script - program count - web hypermedia application - complexity - interface complexity - control flow complexity - adaptation complexity - class complexity - cyclomatic complexity - model collection complexity - difficulty level - data flow complexity - data usage complexity - cohesion complexity - page complexity - output complexity - new complexity - input complexity - component complexity - model association complexity - total complexity - layout complexity - model dependency.specific - project.type - class.length - web application - web page allocation - media - media count - new media count - media allocation - media duration</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Usman - Dasthi</t>
-        </is>
-      </c>
-      <c r="B18" s="7" t="inlineStr">
-        <is>
-          <t>analogy - analogy base - expert judgement - expert judgment</t>
+          <t>Mendes - Usman</t>
+        </is>
+      </c>
+      <c r="B18" s="6" t="inlineStr">
+        <is>
+          <t>validated theoretically - not considered - considered - functionality - use case - maintainability - task - implementation - non functional requirements.other - performance - solution-oriented metric - considered without any metric - early size metric - size.other - problem-oriented metric - late size metric</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>Usman - Bajta</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>ideal hours - effort hours - size.other - size report - other - effort estimate.type.other - no. of team members - no of team members - not considered - considered - se - distributed: far offshore - near offshore - far offshore - distant onshore - distributed: distant onshore - close onshore - customized scrum - agile - maintainability - availability - reliability - maintenance - design - hours/days - task - execution - distributed: near offshore - communications industry - telecommunication - implementation - performance - project domain.other - estimation entity.other - estimate value - analysis - number of entities estimated.value - estimation techniques.other - group-based estimation - not used - statistics analysis - system investigation - distributed: close onshore - security - unit.other - expert judgement - expert judgment - estimate value(s) - value - single - individual - health - healthcare - financial - finance - not applicable - testing - scrum - actual effort.value</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2017</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>effort estimate.type.other - project.type - use case - use case count - no. of team members - team capability - work team level - team size - use case points method - function points - international function point users group - object-oriented function points - object-oriented heuristic function points - point - data web points - maintainability - portability level - installability level - maintainability level - reliability level - reusability level - design - architecture - hours/days - time restriction - accuracy level.value - quality level - implementation - non functional requirements.other - requirements novelty level - requirements clarity level - processing requirements - requirements volatility level - project domain.other - project.infrastructure - estimation entity.other - entity count - performance - time efficiency level - process efficiency level - number of entities estimated.value - not used - availability - availability level - security - security level - reliability - robustness level - user case points - testing - testability level - maintenance</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Usman - Britto_2016</t>
+        </is>
+      </c>
+      <c r="B21" s="9" t="inlineStr">
+        <is>
+          <t>distributed: far offshore - semi-distributed - distributed - distributed: distant onshore - co-located - relationship.location - centralized - distributed: near offshore - estimation entity.other - estimator &amp; provider - estimator - distribution - estimation techniques.other - distributed: close onshore - estimate value(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Usman - Dasthi</t>
+        </is>
+      </c>
+      <c r="B22" s="6" t="inlineStr">
+        <is>
+          <t>analogy - analogy-based - expert judgement - expert judgment</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>Usman - Mendes</t>
         </is>
       </c>
-      <c r="B19" s="8" t="inlineStr">
-        <is>
-          <t>other</t>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>size.other - early size metric - late size metric - use case - functionality - not considered - validated theoretically - maintainability - task - implementation - non functional requirements.other - performance - considered - considered without any metric - solution-oriented metric - problem-oriented metric</t>
         </is>
       </c>
     </row>
